--- a/project/model_1-output.xlsx
+++ b/project/model_1-output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aelhabr\Documents\projects\isye-6420\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B719A3A-E57E-412C-AC10-62C0B19E9041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEC1F39-E427-470C-A1C1-1D95AFBC37D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="1230" windowWidth="18795" windowHeight="11505" xr2:uid="{ACF0EFFA-6299-46FB-8CB9-B2CB627C16EC}"/>
+    <workbookView xWindow="14310" yWindow="1860" windowWidth="16305" windowHeight="11505" xr2:uid="{ACF0EFFA-6299-46FB-8CB9-B2CB627C16EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,9 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,878 +503,889 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.18290000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.6960000000000001E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1.786E-4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.12959999999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.18310000000000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.2354</v>
       </c>
-      <c r="H2">
-        <v>1001</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.44819999999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.3689999999999999E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1.905E-4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.40079999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.44829999999999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="H3">
-        <v>1001</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.99919999999999998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.5786</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.8929999999999999E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4.8959999999999997E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.99839999999999995</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1.95</v>
       </c>
-      <c r="H4">
-        <v>1001</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>6.3290000000000004E-4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.31</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>6.8950000000000001E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-4.5309999999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2.8370000000000001E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4.53</v>
       </c>
-      <c r="H5">
-        <v>1001</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>-5.1900000000000002E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.3069999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>6.8310000000000003E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-4.5510000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-6.6299999999999996E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>4.5209999999999999</v>
       </c>
-      <c r="H6">
-        <v>1001</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>-3.0409999999999999E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.302</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>6.9719999999999999E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>-4.53</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1.281E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>4.516</v>
       </c>
-      <c r="H7">
-        <v>1001</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I7" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-1.2769999999999999E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2.3130000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7.2740000000000001E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>-4.556</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-6.0239999999999998E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>4.5330000000000004</v>
       </c>
-      <c r="H8">
-        <v>1001</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I8" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>-2.4580000000000001E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2.3090000000000002</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>7.012E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>-4.5419999999999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>-4.4400000000000004E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>4.5190000000000001</v>
       </c>
-      <c r="H9">
-        <v>1001</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I9" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>-8.0809999999999996E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2.3090000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>7.182E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>-4.5449999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>-8.4939999999999998E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>4.5380000000000003</v>
       </c>
-      <c r="H10">
-        <v>1001</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I10" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>-4.5469999999999998E-3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2.3140000000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>6.999E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>-4.5380000000000003</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>-1.17E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4.5540000000000003</v>
       </c>
-      <c r="H11">
-        <v>1001</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I11" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>-2.2160000000000001E-3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2.298</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>7.0530000000000002E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>-4.5110000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>3.4320000000000002E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>4.5229999999999997</v>
       </c>
-      <c r="H12">
-        <v>1001</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I12" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>4.5219999999999999E-4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2.3090000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>6.8529999999999997E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>-4.5670000000000002</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>-2.2520000000000001E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>4.5259999999999998</v>
       </c>
-      <c r="H13">
-        <v>1001</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>-6.0670000000000003E-3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2.3090000000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>7.1720000000000004E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>-4.57</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>-8.3639999999999999E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>4.532</v>
       </c>
-      <c r="H14">
-        <v>1001</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I14" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>7.3470000000000002E-3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2.306</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>6.8659999999999997E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>-4.5389999999999997</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>8.3350000000000004E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>4.5339999999999998</v>
       </c>
-      <c r="H15">
-        <v>1001</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I15" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>-1.013E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2.3119999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>6.9350000000000002E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>-4.5609999999999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>-1.5980000000000001E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>4.5359999999999996</v>
       </c>
-      <c r="H16">
-        <v>1001</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I16" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>-2.284E-3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2.302</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>6.9309999999999997E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>-4.5430000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>-8.881E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>4.5190000000000001</v>
       </c>
-      <c r="H17">
-        <v>1001</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I17" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1.526E-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>2.3050000000000002</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>7.3249999999999999E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>-4.5129999999999999</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>-6.4180000000000001E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>4.5279999999999996</v>
       </c>
-      <c r="H18">
-        <v>1001</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I18" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>4.9220000000000002E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2.3079999999999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>7.0429999999999998E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>-4.5289999999999999</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>-4.6430000000000001E-4</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>4.5449999999999999</v>
       </c>
-      <c r="H19">
-        <v>1001</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I19" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>3.68E-4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2.306</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>7.2399999999999999E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>-4.5469999999999997</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>2.0079999999999998E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>4.532</v>
       </c>
-      <c r="H20">
-        <v>1001</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I20" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>-7.471E-4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>2.3029999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>7.3280000000000003E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>-4.508</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>-6.3709999999999999E-3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>4.5579999999999998</v>
       </c>
-      <c r="H21">
-        <v>1001</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I21" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>6.0720000000000001E-4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>2.3109999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>6.5059999999999996E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>-4.5519999999999996</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>-6.9109999999999996E-3</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>4.5339999999999998</v>
       </c>
-      <c r="H22">
-        <v>1001</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I22" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>-5.6880000000000003E-3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>2.3079999999999998</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>6.9880000000000003E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>-4.5640000000000001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>-1.329E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>4.5289999999999999</v>
       </c>
-      <c r="H23">
-        <v>1001</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I23" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1.2650000000000001E-3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2.3079999999999998</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>6.8139999999999997E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>-4.53</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>3.065E-3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>4.5339999999999998</v>
       </c>
-      <c r="H24">
-        <v>1001</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I24" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>-6.3249999999999999E-3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2.3050000000000002</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>7.1050000000000002E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>-4.5529999999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>2.421E-3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>4.5170000000000003</v>
       </c>
-      <c r="H25">
-        <v>1001</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I25" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>8.9990000000000003E-4</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>2.3039999999999998</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>7.1469999999999997E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>-4.5289999999999999</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>8.8029999999999996E-5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>4.5369999999999999</v>
       </c>
-      <c r="H26">
-        <v>1001</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I26" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>-1.6949999999999999E-3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>2.3029999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>6.8050000000000003E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>-4.51</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>-8.2509999999999997E-3</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>4.53</v>
       </c>
-      <c r="H27">
-        <v>1001</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I27" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>4.5510000000000004E-3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>2.3039999999999998</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>7.3550000000000004E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>-4.5229999999999997</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>-7.1690000000000002E-4</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>4.5490000000000004</v>
       </c>
-      <c r="H28">
-        <v>1001</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I28" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>-2.4290000000000002E-3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>2.302</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>7.0460000000000002E-3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>-4.5110000000000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>-3.96E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>4.5199999999999996</v>
       </c>
-      <c r="H29">
-        <v>1001</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I29" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>-4.683E-4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1.996</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>5.9820000000000003E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>-3.9119999999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>-7.6150000000000002E-3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>3.8940000000000001</v>
       </c>
-      <c r="H30">
-        <v>1001</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I30" s="1">
         <v>100000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>